--- a/Приложение 21. Расшифровка на 01.07.20.xlsx
+++ b/Приложение 21. Расшифровка на 01.07.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Работа\01.21\ПриказыУУОиООУ\reportsKCSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4B43D0-8BCB-4114-A794-585B2475E5E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FF90F4-4CCE-48AC-88F5-191F1B26AB19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27120" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,6 +982,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,9 +1008,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,8 +1352,8 @@
   </sheetPr>
   <dimension ref="A1:L778"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1371,52 +1371,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1488,16 +1488,16 @@
       <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
     </row>
@@ -1896,7 +1896,7 @@
       <c r="H19" s="19">
         <v>0</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="43" t="s">
         <v>175</v>
       </c>
       <c r="J19" s="10"/>
@@ -2049,16 +2049,16 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
@@ -2495,16 +2495,16 @@
       </c>
     </row>
     <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
@@ -2941,16 +2941,16 @@
       </c>
     </row>
     <row r="59" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="46"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
@@ -3387,16 +3387,16 @@
       </c>
     </row>
     <row r="76" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="46"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
@@ -3833,16 +3833,16 @@
       </c>
     </row>
     <row r="93" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="43" t="s">
+      <c r="A93" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="45"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="46"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
@@ -4279,16 +4279,16 @@
       </c>
     </row>
     <row r="110" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="43" t="s">
+      <c r="A110" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="46"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
@@ -4725,16 +4725,16 @@
       </c>
     </row>
     <row r="127" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="43" t="s">
+      <c r="A127" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="46"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
@@ -5171,16 +5171,16 @@
       </c>
     </row>
     <row r="144" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="43" t="s">
+      <c r="A144" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B144" s="44"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="44"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="45"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="46"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
@@ -5617,16 +5617,16 @@
       </c>
     </row>
     <row r="161" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="43" t="s">
+      <c r="A161" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B161" s="44"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="44"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="45"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="46"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
@@ -6063,16 +6063,16 @@
       </c>
     </row>
     <row r="178" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="43" t="s">
+      <c r="A178" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B178" s="44"/>
-      <c r="C178" s="44"/>
-      <c r="D178" s="44"/>
-      <c r="E178" s="44"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="44"/>
-      <c r="H178" s="45"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="45"/>
+      <c r="E178" s="45"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="45"/>
+      <c r="H178" s="46"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
@@ -6509,16 +6509,16 @@
       </c>
     </row>
     <row r="195" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="43" t="s">
+      <c r="A195" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B195" s="44"/>
-      <c r="C195" s="44"/>
-      <c r="D195" s="44"/>
-      <c r="E195" s="44"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="44"/>
-      <c r="H195" s="45"/>
+      <c r="B195" s="45"/>
+      <c r="C195" s="45"/>
+      <c r="D195" s="45"/>
+      <c r="E195" s="45"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="45"/>
+      <c r="H195" s="46"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
@@ -6955,16 +6955,16 @@
       </c>
     </row>
     <row r="212" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="43" t="s">
+      <c r="A212" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B212" s="44"/>
-      <c r="C212" s="44"/>
-      <c r="D212" s="44"/>
-      <c r="E212" s="44"/>
-      <c r="F212" s="44"/>
-      <c r="G212" s="44"/>
-      <c r="H212" s="45"/>
+      <c r="B212" s="45"/>
+      <c r="C212" s="45"/>
+      <c r="D212" s="45"/>
+      <c r="E212" s="45"/>
+      <c r="F212" s="45"/>
+      <c r="G212" s="45"/>
+      <c r="H212" s="46"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
@@ -7401,16 +7401,16 @@
       </c>
     </row>
     <row r="229" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="43" t="s">
+      <c r="A229" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B229" s="44"/>
-      <c r="C229" s="44"/>
-      <c r="D229" s="44"/>
-      <c r="E229" s="44"/>
-      <c r="F229" s="44"/>
-      <c r="G229" s="44"/>
-      <c r="H229" s="45"/>
+      <c r="B229" s="45"/>
+      <c r="C229" s="45"/>
+      <c r="D229" s="45"/>
+      <c r="E229" s="45"/>
+      <c r="F229" s="45"/>
+      <c r="G229" s="45"/>
+      <c r="H229" s="46"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
@@ -7847,16 +7847,16 @@
       </c>
     </row>
     <row r="246" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="43" t="s">
+      <c r="A246" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B246" s="44"/>
-      <c r="C246" s="44"/>
-      <c r="D246" s="44"/>
-      <c r="E246" s="44"/>
-      <c r="F246" s="44"/>
-      <c r="G246" s="44"/>
-      <c r="H246" s="45"/>
+      <c r="B246" s="45"/>
+      <c r="C246" s="45"/>
+      <c r="D246" s="45"/>
+      <c r="E246" s="45"/>
+      <c r="F246" s="45"/>
+      <c r="G246" s="45"/>
+      <c r="H246" s="46"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
@@ -8293,16 +8293,16 @@
       </c>
     </row>
     <row r="263" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="43" t="s">
+      <c r="A263" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B263" s="44"/>
-      <c r="C263" s="44"/>
-      <c r="D263" s="44"/>
-      <c r="E263" s="44"/>
-      <c r="F263" s="44"/>
-      <c r="G263" s="44"/>
-      <c r="H263" s="45"/>
+      <c r="B263" s="45"/>
+      <c r="C263" s="45"/>
+      <c r="D263" s="45"/>
+      <c r="E263" s="45"/>
+      <c r="F263" s="45"/>
+      <c r="G263" s="45"/>
+      <c r="H263" s="46"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
@@ -8739,16 +8739,16 @@
       </c>
     </row>
     <row r="280" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="43" t="s">
+      <c r="A280" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B280" s="44"/>
-      <c r="C280" s="44"/>
-      <c r="D280" s="44"/>
-      <c r="E280" s="44"/>
-      <c r="F280" s="44"/>
-      <c r="G280" s="44"/>
-      <c r="H280" s="45"/>
+      <c r="B280" s="45"/>
+      <c r="C280" s="45"/>
+      <c r="D280" s="45"/>
+      <c r="E280" s="45"/>
+      <c r="F280" s="45"/>
+      <c r="G280" s="45"/>
+      <c r="H280" s="46"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
@@ -9185,16 +9185,16 @@
       </c>
     </row>
     <row r="297" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="43" t="s">
+      <c r="A297" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B297" s="44"/>
-      <c r="C297" s="44"/>
-      <c r="D297" s="44"/>
-      <c r="E297" s="44"/>
-      <c r="F297" s="44"/>
-      <c r="G297" s="44"/>
-      <c r="H297" s="45"/>
+      <c r="B297" s="45"/>
+      <c r="C297" s="45"/>
+      <c r="D297" s="45"/>
+      <c r="E297" s="45"/>
+      <c r="F297" s="45"/>
+      <c r="G297" s="45"/>
+      <c r="H297" s="46"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
@@ -9631,16 +9631,16 @@
       </c>
     </row>
     <row r="314" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="43" t="s">
+      <c r="A314" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B314" s="44"/>
-      <c r="C314" s="44"/>
-      <c r="D314" s="44"/>
-      <c r="E314" s="44"/>
-      <c r="F314" s="44"/>
-      <c r="G314" s="44"/>
-      <c r="H314" s="45"/>
+      <c r="B314" s="45"/>
+      <c r="C314" s="45"/>
+      <c r="D314" s="45"/>
+      <c r="E314" s="45"/>
+      <c r="F314" s="45"/>
+      <c r="G314" s="45"/>
+      <c r="H314" s="46"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
@@ -10077,16 +10077,16 @@
       </c>
     </row>
     <row r="331" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="43" t="s">
+      <c r="A331" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B331" s="44"/>
-      <c r="C331" s="44"/>
-      <c r="D331" s="44"/>
-      <c r="E331" s="44"/>
-      <c r="F331" s="44"/>
-      <c r="G331" s="44"/>
-      <c r="H331" s="45"/>
+      <c r="B331" s="45"/>
+      <c r="C331" s="45"/>
+      <c r="D331" s="45"/>
+      <c r="E331" s="45"/>
+      <c r="F331" s="45"/>
+      <c r="G331" s="45"/>
+      <c r="H331" s="46"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
@@ -10523,16 +10523,16 @@
       </c>
     </row>
     <row r="348" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="43" t="s">
+      <c r="A348" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B348" s="44"/>
-      <c r="C348" s="44"/>
-      <c r="D348" s="44"/>
-      <c r="E348" s="44"/>
-      <c r="F348" s="44"/>
-      <c r="G348" s="44"/>
-      <c r="H348" s="45"/>
+      <c r="B348" s="45"/>
+      <c r="C348" s="45"/>
+      <c r="D348" s="45"/>
+      <c r="E348" s="45"/>
+      <c r="F348" s="45"/>
+      <c r="G348" s="45"/>
+      <c r="H348" s="46"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
@@ -10969,16 +10969,16 @@
       </c>
     </row>
     <row r="365" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="43" t="s">
+      <c r="A365" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B365" s="44"/>
-      <c r="C365" s="44"/>
-      <c r="D365" s="44"/>
-      <c r="E365" s="44"/>
-      <c r="F365" s="44"/>
-      <c r="G365" s="44"/>
-      <c r="H365" s="45"/>
+      <c r="B365" s="45"/>
+      <c r="C365" s="45"/>
+      <c r="D365" s="45"/>
+      <c r="E365" s="45"/>
+      <c r="F365" s="45"/>
+      <c r="G365" s="45"/>
+      <c r="H365" s="46"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
@@ -11415,16 +11415,16 @@
       </c>
     </row>
     <row r="382" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="43" t="s">
+      <c r="A382" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B382" s="44"/>
-      <c r="C382" s="44"/>
-      <c r="D382" s="44"/>
-      <c r="E382" s="44"/>
-      <c r="F382" s="44"/>
-      <c r="G382" s="44"/>
-      <c r="H382" s="45"/>
+      <c r="B382" s="45"/>
+      <c r="C382" s="45"/>
+      <c r="D382" s="45"/>
+      <c r="E382" s="45"/>
+      <c r="F382" s="45"/>
+      <c r="G382" s="45"/>
+      <c r="H382" s="46"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
@@ -11861,16 +11861,16 @@
       </c>
     </row>
     <row r="399" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="43" t="s">
+      <c r="A399" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B399" s="44"/>
-      <c r="C399" s="44"/>
-      <c r="D399" s="44"/>
-      <c r="E399" s="44"/>
-      <c r="F399" s="44"/>
-      <c r="G399" s="44"/>
-      <c r="H399" s="45"/>
+      <c r="B399" s="45"/>
+      <c r="C399" s="45"/>
+      <c r="D399" s="45"/>
+      <c r="E399" s="45"/>
+      <c r="F399" s="45"/>
+      <c r="G399" s="45"/>
+      <c r="H399" s="46"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
@@ -12307,16 +12307,16 @@
       </c>
     </row>
     <row r="416" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="43" t="s">
+      <c r="A416" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B416" s="44"/>
-      <c r="C416" s="44"/>
-      <c r="D416" s="44"/>
-      <c r="E416" s="44"/>
-      <c r="F416" s="44"/>
-      <c r="G416" s="44"/>
-      <c r="H416" s="45"/>
+      <c r="B416" s="45"/>
+      <c r="C416" s="45"/>
+      <c r="D416" s="45"/>
+      <c r="E416" s="45"/>
+      <c r="F416" s="45"/>
+      <c r="G416" s="45"/>
+      <c r="H416" s="46"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
@@ -12753,16 +12753,16 @@
       </c>
     </row>
     <row r="433" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="43" t="s">
+      <c r="A433" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B433" s="44"/>
-      <c r="C433" s="44"/>
-      <c r="D433" s="44"/>
-      <c r="E433" s="44"/>
-      <c r="F433" s="44"/>
-      <c r="G433" s="44"/>
-      <c r="H433" s="45"/>
+      <c r="B433" s="45"/>
+      <c r="C433" s="45"/>
+      <c r="D433" s="45"/>
+      <c r="E433" s="45"/>
+      <c r="F433" s="45"/>
+      <c r="G433" s="45"/>
+      <c r="H433" s="46"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
@@ -13199,16 +13199,16 @@
       </c>
     </row>
     <row r="450" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="43" t="s">
+      <c r="A450" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B450" s="44"/>
-      <c r="C450" s="44"/>
-      <c r="D450" s="44"/>
-      <c r="E450" s="44"/>
-      <c r="F450" s="44"/>
-      <c r="G450" s="44"/>
-      <c r="H450" s="45"/>
+      <c r="B450" s="45"/>
+      <c r="C450" s="45"/>
+      <c r="D450" s="45"/>
+      <c r="E450" s="45"/>
+      <c r="F450" s="45"/>
+      <c r="G450" s="45"/>
+      <c r="H450" s="46"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
@@ -13645,16 +13645,16 @@
       </c>
     </row>
     <row r="467" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="43" t="s">
+      <c r="A467" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B467" s="44"/>
-      <c r="C467" s="44"/>
-      <c r="D467" s="44"/>
-      <c r="E467" s="44"/>
-      <c r="F467" s="44"/>
-      <c r="G467" s="44"/>
-      <c r="H467" s="45"/>
+      <c r="B467" s="45"/>
+      <c r="C467" s="45"/>
+      <c r="D467" s="45"/>
+      <c r="E467" s="45"/>
+      <c r="F467" s="45"/>
+      <c r="G467" s="45"/>
+      <c r="H467" s="46"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
@@ -14091,16 +14091,16 @@
       </c>
     </row>
     <row r="484" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="43" t="s">
+      <c r="A484" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B484" s="44"/>
-      <c r="C484" s="44"/>
-      <c r="D484" s="44"/>
-      <c r="E484" s="44"/>
-      <c r="F484" s="44"/>
-      <c r="G484" s="44"/>
-      <c r="H484" s="45"/>
+      <c r="B484" s="45"/>
+      <c r="C484" s="45"/>
+      <c r="D484" s="45"/>
+      <c r="E484" s="45"/>
+      <c r="F484" s="45"/>
+      <c r="G484" s="45"/>
+      <c r="H484" s="46"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
@@ -14537,16 +14537,16 @@
       </c>
     </row>
     <row r="501" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="43" t="s">
+      <c r="A501" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B501" s="44"/>
-      <c r="C501" s="44"/>
-      <c r="D501" s="44"/>
-      <c r="E501" s="44"/>
-      <c r="F501" s="44"/>
-      <c r="G501" s="44"/>
-      <c r="H501" s="45"/>
+      <c r="B501" s="45"/>
+      <c r="C501" s="45"/>
+      <c r="D501" s="45"/>
+      <c r="E501" s="45"/>
+      <c r="F501" s="45"/>
+      <c r="G501" s="45"/>
+      <c r="H501" s="46"/>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
@@ -14983,16 +14983,16 @@
       </c>
     </row>
     <row r="518" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="43" t="s">
+      <c r="A518" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B518" s="44"/>
-      <c r="C518" s="44"/>
-      <c r="D518" s="44"/>
-      <c r="E518" s="44"/>
-      <c r="F518" s="44"/>
-      <c r="G518" s="44"/>
-      <c r="H518" s="45"/>
+      <c r="B518" s="45"/>
+      <c r="C518" s="45"/>
+      <c r="D518" s="45"/>
+      <c r="E518" s="45"/>
+      <c r="F518" s="45"/>
+      <c r="G518" s="45"/>
+      <c r="H518" s="46"/>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
@@ -15429,16 +15429,16 @@
       </c>
     </row>
     <row r="535" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="43" t="s">
+      <c r="A535" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B535" s="44"/>
-      <c r="C535" s="44"/>
-      <c r="D535" s="44"/>
-      <c r="E535" s="44"/>
-      <c r="F535" s="44"/>
-      <c r="G535" s="44"/>
-      <c r="H535" s="45"/>
+      <c r="B535" s="45"/>
+      <c r="C535" s="45"/>
+      <c r="D535" s="45"/>
+      <c r="E535" s="45"/>
+      <c r="F535" s="45"/>
+      <c r="G535" s="45"/>
+      <c r="H535" s="46"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" s="5" t="s">
@@ -15875,16 +15875,16 @@
       </c>
     </row>
     <row r="552" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="43" t="s">
+      <c r="A552" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B552" s="44"/>
-      <c r="C552" s="44"/>
-      <c r="D552" s="44"/>
-      <c r="E552" s="44"/>
-      <c r="F552" s="44"/>
-      <c r="G552" s="44"/>
-      <c r="H552" s="45"/>
+      <c r="B552" s="45"/>
+      <c r="C552" s="45"/>
+      <c r="D552" s="45"/>
+      <c r="E552" s="45"/>
+      <c r="F552" s="45"/>
+      <c r="G552" s="45"/>
+      <c r="H552" s="46"/>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" s="5" t="s">
@@ -16321,16 +16321,16 @@
       </c>
     </row>
     <row r="569" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="43" t="s">
+      <c r="A569" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B569" s="44"/>
-      <c r="C569" s="44"/>
-      <c r="D569" s="44"/>
-      <c r="E569" s="44"/>
-      <c r="F569" s="44"/>
-      <c r="G569" s="44"/>
-      <c r="H569" s="45"/>
+      <c r="B569" s="45"/>
+      <c r="C569" s="45"/>
+      <c r="D569" s="45"/>
+      <c r="E569" s="45"/>
+      <c r="F569" s="45"/>
+      <c r="G569" s="45"/>
+      <c r="H569" s="46"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570" s="5" t="s">
@@ -16767,16 +16767,16 @@
       </c>
     </row>
     <row r="586" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="43" t="s">
+      <c r="A586" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B586" s="44"/>
-      <c r="C586" s="44"/>
-      <c r="D586" s="44"/>
-      <c r="E586" s="44"/>
-      <c r="F586" s="44"/>
-      <c r="G586" s="44"/>
-      <c r="H586" s="45"/>
+      <c r="B586" s="45"/>
+      <c r="C586" s="45"/>
+      <c r="D586" s="45"/>
+      <c r="E586" s="45"/>
+      <c r="F586" s="45"/>
+      <c r="G586" s="45"/>
+      <c r="H586" s="46"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" s="5" t="s">
@@ -17213,16 +17213,16 @@
       </c>
     </row>
     <row r="603" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="43" t="s">
+      <c r="A603" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B603" s="44"/>
-      <c r="C603" s="44"/>
-      <c r="D603" s="44"/>
-      <c r="E603" s="44"/>
-      <c r="F603" s="44"/>
-      <c r="G603" s="44"/>
-      <c r="H603" s="45"/>
+      <c r="B603" s="45"/>
+      <c r="C603" s="45"/>
+      <c r="D603" s="45"/>
+      <c r="E603" s="45"/>
+      <c r="F603" s="45"/>
+      <c r="G603" s="45"/>
+      <c r="H603" s="46"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" s="5" t="s">
@@ -17659,16 +17659,16 @@
       </c>
     </row>
     <row r="620" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A620" s="43" t="s">
+      <c r="A620" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B620" s="44"/>
-      <c r="C620" s="44"/>
-      <c r="D620" s="44"/>
-      <c r="E620" s="44"/>
-      <c r="F620" s="44"/>
-      <c r="G620" s="44"/>
-      <c r="H620" s="45"/>
+      <c r="B620" s="45"/>
+      <c r="C620" s="45"/>
+      <c r="D620" s="45"/>
+      <c r="E620" s="45"/>
+      <c r="F620" s="45"/>
+      <c r="G620" s="45"/>
+      <c r="H620" s="46"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A621" s="5" t="s">
@@ -18105,16 +18105,16 @@
       </c>
     </row>
     <row r="637" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A637" s="43" t="s">
+      <c r="A637" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B637" s="44"/>
-      <c r="C637" s="44"/>
-      <c r="D637" s="44"/>
-      <c r="E637" s="44"/>
-      <c r="F637" s="44"/>
-      <c r="G637" s="44"/>
-      <c r="H637" s="45"/>
+      <c r="B637" s="45"/>
+      <c r="C637" s="45"/>
+      <c r="D637" s="45"/>
+      <c r="E637" s="45"/>
+      <c r="F637" s="45"/>
+      <c r="G637" s="45"/>
+      <c r="H637" s="46"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A638" s="5" t="s">
@@ -18551,16 +18551,16 @@
       </c>
     </row>
     <row r="654" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A654" s="43" t="s">
+      <c r="A654" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B654" s="44"/>
-      <c r="C654" s="44"/>
-      <c r="D654" s="44"/>
-      <c r="E654" s="44"/>
-      <c r="F654" s="44"/>
-      <c r="G654" s="44"/>
-      <c r="H654" s="45"/>
+      <c r="B654" s="45"/>
+      <c r="C654" s="45"/>
+      <c r="D654" s="45"/>
+      <c r="E654" s="45"/>
+      <c r="F654" s="45"/>
+      <c r="G654" s="45"/>
+      <c r="H654" s="46"/>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A655" s="5" t="s">
@@ -18997,16 +18997,16 @@
       </c>
     </row>
     <row r="671" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="43" t="s">
+      <c r="A671" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B671" s="44"/>
-      <c r="C671" s="44"/>
-      <c r="D671" s="44"/>
-      <c r="E671" s="44"/>
-      <c r="F671" s="44"/>
-      <c r="G671" s="44"/>
-      <c r="H671" s="45"/>
+      <c r="B671" s="45"/>
+      <c r="C671" s="45"/>
+      <c r="D671" s="45"/>
+      <c r="E671" s="45"/>
+      <c r="F671" s="45"/>
+      <c r="G671" s="45"/>
+      <c r="H671" s="46"/>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A672" s="5" t="s">
@@ -19443,16 +19443,16 @@
       </c>
     </row>
     <row r="688" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A688" s="43" t="s">
+      <c r="A688" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B688" s="44"/>
-      <c r="C688" s="44"/>
-      <c r="D688" s="44"/>
-      <c r="E688" s="44"/>
-      <c r="F688" s="44"/>
-      <c r="G688" s="44"/>
-      <c r="H688" s="45"/>
+      <c r="B688" s="45"/>
+      <c r="C688" s="45"/>
+      <c r="D688" s="45"/>
+      <c r="E688" s="45"/>
+      <c r="F688" s="45"/>
+      <c r="G688" s="45"/>
+      <c r="H688" s="46"/>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A689" s="5" t="s">
@@ -19889,16 +19889,16 @@
       </c>
     </row>
     <row r="705" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A705" s="43" t="s">
+      <c r="A705" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="B705" s="44"/>
-      <c r="C705" s="44"/>
-      <c r="D705" s="44"/>
-      <c r="E705" s="44"/>
-      <c r="F705" s="44"/>
-      <c r="G705" s="44"/>
-      <c r="H705" s="45"/>
+      <c r="B705" s="45"/>
+      <c r="C705" s="45"/>
+      <c r="D705" s="45"/>
+      <c r="E705" s="45"/>
+      <c r="F705" s="45"/>
+      <c r="G705" s="45"/>
+      <c r="H705" s="46"/>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A706" s="5" t="s">
@@ -20335,16 +20335,16 @@
       </c>
     </row>
     <row r="722" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A722" s="43" t="s">
+      <c r="A722" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B722" s="44"/>
-      <c r="C722" s="44"/>
-      <c r="D722" s="44"/>
-      <c r="E722" s="44"/>
-      <c r="F722" s="44"/>
-      <c r="G722" s="44"/>
-      <c r="H722" s="45"/>
+      <c r="B722" s="45"/>
+      <c r="C722" s="45"/>
+      <c r="D722" s="45"/>
+      <c r="E722" s="45"/>
+      <c r="F722" s="45"/>
+      <c r="G722" s="45"/>
+      <c r="H722" s="46"/>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A723" s="5" t="s">
@@ -20781,16 +20781,16 @@
       </c>
     </row>
     <row r="739" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A739" s="43" t="s">
+      <c r="A739" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="B739" s="44"/>
-      <c r="C739" s="44"/>
-      <c r="D739" s="44"/>
-      <c r="E739" s="44"/>
-      <c r="F739" s="44"/>
-      <c r="G739" s="44"/>
-      <c r="H739" s="45"/>
+      <c r="B739" s="45"/>
+      <c r="C739" s="45"/>
+      <c r="D739" s="45"/>
+      <c r="E739" s="45"/>
+      <c r="F739" s="45"/>
+      <c r="G739" s="45"/>
+      <c r="H739" s="46"/>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A740" s="5" t="s">
@@ -21227,16 +21227,16 @@
       </c>
     </row>
     <row r="756" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A756" s="43" t="s">
+      <c r="A756" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B756" s="44"/>
-      <c r="C756" s="44"/>
-      <c r="D756" s="44"/>
-      <c r="E756" s="44"/>
-      <c r="F756" s="44"/>
-      <c r="G756" s="44"/>
-      <c r="H756" s="45"/>
+      <c r="B756" s="45"/>
+      <c r="C756" s="45"/>
+      <c r="D756" s="45"/>
+      <c r="E756" s="45"/>
+      <c r="F756" s="45"/>
+      <c r="G756" s="45"/>
+      <c r="H756" s="46"/>
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A757" s="5" t="s">
@@ -21704,39 +21704,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A705:H705"/>
-    <mergeCell ref="A722:H722"/>
-    <mergeCell ref="A739:H739"/>
-    <mergeCell ref="A603:H603"/>
-    <mergeCell ref="A620:H620"/>
-    <mergeCell ref="A637:H637"/>
-    <mergeCell ref="A654:H654"/>
-    <mergeCell ref="A671:H671"/>
-    <mergeCell ref="A688:H688"/>
-    <mergeCell ref="A348:H348"/>
-    <mergeCell ref="A365:H365"/>
-    <mergeCell ref="A586:H586"/>
-    <mergeCell ref="A399:H399"/>
-    <mergeCell ref="A416:H416"/>
-    <mergeCell ref="A433:H433"/>
-    <mergeCell ref="A450:H450"/>
-    <mergeCell ref="A467:H467"/>
-    <mergeCell ref="A484:H484"/>
-    <mergeCell ref="A501:H501"/>
-    <mergeCell ref="A518:H518"/>
-    <mergeCell ref="A535:H535"/>
-    <mergeCell ref="A552:H552"/>
-    <mergeCell ref="A569:H569"/>
-    <mergeCell ref="A263:H263"/>
-    <mergeCell ref="A280:H280"/>
-    <mergeCell ref="A297:H297"/>
-    <mergeCell ref="A314:H314"/>
-    <mergeCell ref="A331:H331"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A93:H93"/>
     <mergeCell ref="A756:H756"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A25:H25"/>
@@ -21753,6 +21720,39 @@
     <mergeCell ref="A212:H212"/>
     <mergeCell ref="A229:H229"/>
     <mergeCell ref="A246:H246"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A263:H263"/>
+    <mergeCell ref="A280:H280"/>
+    <mergeCell ref="A297:H297"/>
+    <mergeCell ref="A314:H314"/>
+    <mergeCell ref="A331:H331"/>
+    <mergeCell ref="A348:H348"/>
+    <mergeCell ref="A365:H365"/>
+    <mergeCell ref="A586:H586"/>
+    <mergeCell ref="A399:H399"/>
+    <mergeCell ref="A416:H416"/>
+    <mergeCell ref="A433:H433"/>
+    <mergeCell ref="A450:H450"/>
+    <mergeCell ref="A467:H467"/>
+    <mergeCell ref="A484:H484"/>
+    <mergeCell ref="A501:H501"/>
+    <mergeCell ref="A518:H518"/>
+    <mergeCell ref="A535:H535"/>
+    <mergeCell ref="A552:H552"/>
+    <mergeCell ref="A569:H569"/>
+    <mergeCell ref="A705:H705"/>
+    <mergeCell ref="A722:H722"/>
+    <mergeCell ref="A739:H739"/>
+    <mergeCell ref="A603:H603"/>
+    <mergeCell ref="A620:H620"/>
+    <mergeCell ref="A637:H637"/>
+    <mergeCell ref="A654:H654"/>
+    <mergeCell ref="A671:H671"/>
+    <mergeCell ref="A688:H688"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
